--- a/xlsx/油田_intext.xlsx
+++ b/xlsx/油田_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E7%81%BD</t>
   </si>
   <si>
-    <t>火災</t>
+    <t>火灾</t>
   </si>
   <si>
     <t>政策_政策_加州_油田</t>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9D%B1</t>
   </si>
   <si>
-    <t>中東</t>
+    <t>中东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%AD%A6</t>
